--- a/problem_sets/ps1/DataFiles/question-3.xlsx
+++ b/problem_sets/ps1/DataFiles/question-3.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr date1904="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcochran\Dropbox\ASW Files\SBE\SBE 13e\Chapter 2 Camm\Webfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="14865" windowHeight="8580"/>
+    <workbookView xWindow="675" yWindow="165" windowWidth="9720" windowHeight="6945"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Observation</t>
   </si>
@@ -29,34 +29,23 @@
   <si>
     <t>y</t>
   </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
+      <sz val="10"/>
+      <name val="Geneva"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <i/>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -84,10 +73,8 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -99,6 +86,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00CC9CCC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="00339933"/>
+      <rgbColor rgb="00999933"/>
+      <rgbColor rgb="00996633"/>
+      <rgbColor rgb="00996666"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="003333CC"/>
+      <rgbColor rgb="00336666"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00663300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -397,359 +452,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1">
+        <v>72</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1">
+        <v>99</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="1">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1">
+        <v>58</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1">
+        <v>79</v>
+      </c>
+      <c r="C5" s="1">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="B6" s="1">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1">
+        <v>60</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="B7" s="1">
+        <v>71</v>
+      </c>
+      <c r="C7" s="1">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="B8" s="1">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1">
+        <v>77</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="B9" s="1">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1">
+        <v>85</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="B10" s="1">
+        <v>64</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="B11" s="1">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="B12" s="1">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>98</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="B13" s="1">
+        <v>84</v>
+      </c>
+      <c r="C13" s="1">
+        <v>21</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="B14" s="1">
+        <v>59</v>
+      </c>
+      <c r="C14" s="1">
+        <v>32</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="B15" s="1">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1">
+        <v>81</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="B16" s="1">
+        <v>70</v>
+      </c>
+      <c r="C16" s="1">
+        <v>34</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="B17" s="1">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1">
+        <v>64</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="B18" s="1">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1">
+        <v>68</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="B19" s="1">
+        <v>62</v>
+      </c>
+      <c r="C19" s="1">
+        <v>67</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="B20" s="1">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1">
+        <v>39</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="B21" s="1">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="2">
-        <v>2</v>
-      </c>
+      <c r="E21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
+  <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;A</oddHeader>
+    <oddFooter>Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>